--- a/Course_clusters_updated.xlsx
+++ b/Course_clusters_updated.xlsx
@@ -22882,12 +22882,11 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{0D5F1C0F-56F7-4BB2-B1FD-D647183AC01E}" name="Hoffmann Dorothee (UCM)" id="-105012745" dateTime="2017-11-14T12:47:00"/>
   <userInfo guid="{6564441D-CC6A-4861-AC2C-912B29579D28}" name="Wolfgang Giernalczyk" id="-2099537989" dateTime="2019-05-10T13:23:03"/>
   <userInfo guid="{67ED2FFE-40D8-4E6E-B2F9-6D9C330B5FD0}" name="Giernalczyk Wolfgang (UCM)" id="-656116645" dateTime="2019-10-31T15:52:25"/>
   <userInfo guid="{67ED2FFE-40D8-4E6E-B2F9-6D9C330B5FD0}" name="Sofía Vázquez" id="-444964872" dateTime="2019-11-15T14:29:06"/>
-  <userInfo guid="{67ED2FFE-40D8-4E6E-B2F9-6D9C330B5FD0}" name="Sofía Vázquez" id="-444965184" dateTime="2019-11-15T15:21:27"/>
 </users>
 </file>
 
